--- a/Code/Results/Cases/Case_7_63/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_63/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.022373807942051</v>
+        <v>1.04571345696573</v>
       </c>
       <c r="D2">
-        <v>1.042113057762978</v>
+        <v>1.062514824412384</v>
       </c>
       <c r="E2">
-        <v>1.023317514182806</v>
+        <v>1.043491947131174</v>
       </c>
       <c r="F2">
-        <v>1.04646340789225</v>
+        <v>1.067213760931284</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.059447104902855</v>
+        <v>1.073129100678315</v>
       </c>
       <c r="J2">
-        <v>1.04390531228546</v>
+        <v>1.066607855430857</v>
       </c>
       <c r="K2">
-        <v>1.053015286053073</v>
+        <v>1.073166876431736</v>
       </c>
       <c r="L2">
-        <v>1.034461282679368</v>
+        <v>1.05437688261603</v>
       </c>
       <c r="M2">
-        <v>1.057311270952234</v>
+        <v>1.077809871837403</v>
       </c>
       <c r="N2">
-        <v>1.045387777566518</v>
+        <v>1.0681225609272</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.030808102865364</v>
+        <v>1.052805184800464</v>
       </c>
       <c r="D3">
-        <v>1.048905441576766</v>
+        <v>1.068367105260409</v>
       </c>
       <c r="E3">
-        <v>1.030651855978034</v>
+        <v>1.049676911370751</v>
       </c>
       <c r="F3">
-        <v>1.053811803894408</v>
+        <v>1.073591864218882</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.062834972263533</v>
+        <v>1.07642306686368</v>
       </c>
       <c r="J3">
-        <v>1.050492743440925</v>
+        <v>1.071952984833818</v>
       </c>
       <c r="K3">
-        <v>1.058948591273565</v>
+        <v>1.078194022316551</v>
       </c>
       <c r="L3">
-        <v>1.040907005216051</v>
+        <v>1.059711301384144</v>
       </c>
       <c r="M3">
-        <v>1.063799513346452</v>
+        <v>1.083362366798338</v>
       </c>
       <c r="N3">
-        <v>1.051984563629813</v>
+        <v>1.073475281027008</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.036081858747022</v>
+        <v>1.057259613227122</v>
       </c>
       <c r="D4">
-        <v>1.053155464590393</v>
+        <v>1.072045616266125</v>
       </c>
       <c r="E4">
-        <v>1.035237664587856</v>
+        <v>1.053560784869231</v>
       </c>
       <c r="F4">
-        <v>1.058413166418077</v>
+        <v>1.077603927488015</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.064939371620805</v>
+        <v>1.078480452945428</v>
       </c>
       <c r="J4">
-        <v>1.054605549689309</v>
+        <v>1.075303959487929</v>
       </c>
       <c r="K4">
-        <v>1.06265203926425</v>
+        <v>1.081345839408954</v>
       </c>
       <c r="L4">
-        <v>1.04492861952028</v>
+        <v>1.063053056056596</v>
       </c>
       <c r="M4">
-        <v>1.067854230306899</v>
+        <v>1.086847970468171</v>
       </c>
       <c r="N4">
-        <v>1.056103210534815</v>
+        <v>1.076831014449489</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.038257704846224</v>
+        <v>1.059101790717826</v>
       </c>
       <c r="D5">
-        <v>1.054909522396805</v>
+        <v>1.073567457559142</v>
       </c>
       <c r="E5">
-        <v>1.037129558258174</v>
+        <v>1.055166709979899</v>
       </c>
       <c r="F5">
-        <v>1.060313057697671</v>
+        <v>1.079264498890144</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.065804194510372</v>
+        <v>1.079328481469354</v>
       </c>
       <c r="J5">
-        <v>1.056300873144435</v>
+        <v>1.076688217447696</v>
       </c>
       <c r="K5">
-        <v>1.064178366702008</v>
+        <v>1.082647862021088</v>
       </c>
       <c r="L5">
-        <v>1.046585700613442</v>
+        <v>1.064432901524294</v>
       </c>
       <c r="M5">
-        <v>1.069526496853879</v>
+        <v>1.088288939943008</v>
       </c>
       <c r="N5">
-        <v>1.057800941543704</v>
+        <v>1.078217238214337</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.038620695942698</v>
+        <v>1.059409361181608</v>
       </c>
       <c r="D6">
-        <v>1.055202178704639</v>
+        <v>1.073821575148579</v>
       </c>
       <c r="E6">
-        <v>1.037445169127189</v>
+        <v>1.055434816972384</v>
       </c>
       <c r="F6">
-        <v>1.06063009456012</v>
+        <v>1.079541825131706</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.065948268435393</v>
+        <v>1.079469901184901</v>
       </c>
       <c r="J6">
-        <v>1.056583607622993</v>
+        <v>1.076919239788156</v>
       </c>
       <c r="K6">
-        <v>1.064432901393859</v>
+        <v>1.082865161624964</v>
       </c>
       <c r="L6">
-        <v>1.046862018893141</v>
+        <v>1.064663151859791</v>
       </c>
       <c r="M6">
-        <v>1.069805437382251</v>
+        <v>1.088529491220802</v>
       </c>
       <c r="N6">
-        <v>1.058084077537651</v>
+        <v>1.078448588633018</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.03611109110535</v>
+        <v>1.057284346036113</v>
       </c>
       <c r="D7">
-        <v>1.053179028084329</v>
+        <v>1.072066046189427</v>
       </c>
       <c r="E7">
-        <v>1.035263082632318</v>
+        <v>1.053582347015212</v>
       </c>
       <c r="F7">
-        <v>1.058438685704258</v>
+        <v>1.07762621687071</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.064951004052334</v>
+        <v>1.07849184969122</v>
       </c>
       <c r="J7">
-        <v>1.054628332427007</v>
+        <v>1.075322550619043</v>
       </c>
       <c r="K7">
-        <v>1.062672551983305</v>
+        <v>1.08136332596344</v>
       </c>
       <c r="L7">
-        <v>1.044950890921218</v>
+        <v>1.063071590320514</v>
       </c>
       <c r="M7">
-        <v>1.067876699715897</v>
+        <v>1.086867318927688</v>
       </c>
       <c r="N7">
-        <v>1.056126025626614</v>
+        <v>1.076849631982142</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.025264023288373</v>
+        <v>1.048139040702826</v>
       </c>
       <c r="D8">
-        <v>1.044439941341867</v>
+        <v>1.064515886612982</v>
       </c>
       <c r="E8">
-        <v>1.025830790619598</v>
+        <v>1.045607568319916</v>
       </c>
       <c r="F8">
-        <v>1.048980040572635</v>
+        <v>1.069393979220076</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.060610952217104</v>
+        <v>1.074258159337519</v>
       </c>
       <c r="J8">
-        <v>1.046163917103689</v>
+        <v>1.068437371422425</v>
       </c>
       <c r="K8">
-        <v>1.055049800539301</v>
+        <v>1.074887505873667</v>
       </c>
       <c r="L8">
-        <v>1.036671875823263</v>
+        <v>1.056203260213471</v>
       </c>
       <c r="M8">
-        <v>1.059535032653467</v>
+        <v>1.079709378394692</v>
       </c>
       <c r="N8">
-        <v>1.047649589862655</v>
+        <v>1.069954675041325</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.004602235309707</v>
+        <v>1.03090975643729</v>
       </c>
       <c r="D9">
-        <v>1.027823520554422</v>
+        <v>1.0503165114023</v>
       </c>
       <c r="E9">
-        <v>1.007866640884804</v>
+        <v>1.030578088152892</v>
       </c>
       <c r="F9">
-        <v>1.0310234370788</v>
+        <v>1.053936198181838</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.052232777167493</v>
+        <v>1.066189932023008</v>
       </c>
       <c r="J9">
-        <v>1.029993516999994</v>
+        <v>1.055416318101953</v>
       </c>
       <c r="K9">
-        <v>1.040480751982597</v>
+        <v>1.062642775643869</v>
       </c>
       <c r="L9">
-        <v>1.020833363771591</v>
+        <v>1.043193800200798</v>
       </c>
       <c r="M9">
-        <v>1.043632462934205</v>
+        <v>1.066210870672054</v>
       </c>
       <c r="N9">
-        <v>1.031456225936042</v>
+        <v>1.056915130331602</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9895603510271689</v>
+        <v>1.018541607914695</v>
       </c>
       <c r="D10">
-        <v>1.015757227400322</v>
+        <v>1.040145998712189</v>
       </c>
       <c r="E10">
-        <v>0.9947973697114794</v>
+        <v>1.019789702437025</v>
       </c>
       <c r="F10">
-        <v>1.018002875652335</v>
+        <v>1.042880540504694</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.046062382831394</v>
+        <v>1.060338300521873</v>
       </c>
       <c r="J10">
-        <v>1.018194378646854</v>
+        <v>1.046038411617334</v>
       </c>
       <c r="K10">
-        <v>1.029847691442829</v>
+        <v>1.053826359460408</v>
       </c>
       <c r="L10">
-        <v>1.009261198938068</v>
+        <v>1.033810610017128</v>
       </c>
       <c r="M10">
-        <v>1.03205451641759</v>
+        <v>1.056516454896352</v>
       </c>
       <c r="N10">
-        <v>1.01964033145306</v>
+        <v>1.047523906144113</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9826846622950501</v>
+        <v>1.01294222201973</v>
       </c>
       <c r="D11">
-        <v>1.010251614329424</v>
+        <v>1.035548371698207</v>
       </c>
       <c r="E11">
-        <v>0.9888273031646821</v>
+        <v>1.014906777870578</v>
       </c>
       <c r="F11">
-        <v>1.012066306578334</v>
+        <v>1.037886538991688</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.043226304442959</v>
+        <v>1.057675664915755</v>
       </c>
       <c r="J11">
-        <v>1.012795952426037</v>
+        <v>1.041786327864596</v>
       </c>
       <c r="K11">
-        <v>1.024982755614877</v>
+        <v>1.049829654621837</v>
       </c>
       <c r="L11">
-        <v>1.00396304144433</v>
+        <v>1.029552945077402</v>
       </c>
       <c r="M11">
-        <v>1.026764201933214</v>
+        <v>1.052127672347864</v>
       </c>
       <c r="N11">
-        <v>1.014234238847801</v>
+        <v>1.043265783944726</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9800699510304562</v>
+        <v>1.010822314551147</v>
       </c>
       <c r="D12">
-        <v>1.008159675741213</v>
+        <v>1.033808892883345</v>
       </c>
       <c r="E12">
-        <v>0.9865577645668875</v>
+        <v>1.013058417572447</v>
       </c>
       <c r="F12">
-        <v>1.009811286178129</v>
+        <v>1.035997651360461</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.042145581901161</v>
+        <v>1.056665652624952</v>
       </c>
       <c r="J12">
-        <v>1.010742410160562</v>
+        <v>1.040175613241377</v>
       </c>
       <c r="K12">
-        <v>1.023132201280908</v>
+        <v>1.048315819277241</v>
       </c>
       <c r="L12">
-        <v>1.001947108788599</v>
+        <v>1.027939643408629</v>
       </c>
       <c r="M12">
-        <v>1.024752900847413</v>
+        <v>1.050466228935812</v>
       </c>
       <c r="N12">
-        <v>1.012177780316765</v>
+        <v>1.04165278192199</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9806336786100845</v>
+        <v>1.011278913509985</v>
       </c>
       <c r="D13">
-        <v>1.008610610564093</v>
+        <v>1.034183497694758</v>
       </c>
       <c r="E13">
-        <v>0.987047034988261</v>
+        <v>1.013456513707037</v>
       </c>
       <c r="F13">
-        <v>1.01029734465202</v>
+        <v>1.036404407067801</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.042378681260796</v>
+        <v>1.056883282069641</v>
       </c>
       <c r="J13">
-        <v>1.011185175576293</v>
+        <v>1.04052257789009</v>
       </c>
       <c r="K13">
-        <v>1.023531197167543</v>
+        <v>1.048641908430436</v>
       </c>
       <c r="L13">
-        <v>1.002381789068999</v>
+        <v>1.028287186567494</v>
       </c>
       <c r="M13">
-        <v>1.025186506940553</v>
+        <v>1.050824073029649</v>
       </c>
       <c r="N13">
-        <v>1.012621174510172</v>
+        <v>1.042000239300302</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9824698095136533</v>
+        <v>1.012767827974388</v>
       </c>
       <c r="D14">
-        <v>1.010079680981395</v>
+        <v>1.035405249085021</v>
       </c>
       <c r="E14">
-        <v>0.9886407965154418</v>
+        <v>1.014754715937779</v>
       </c>
       <c r="F14">
-        <v>1.011880956304095</v>
+        <v>1.037731111928503</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.0431375445594</v>
+        <v>1.057592615375841</v>
       </c>
       <c r="J14">
-        <v>1.012627222769355</v>
+        <v>1.041653840110355</v>
       </c>
       <c r="K14">
-        <v>1.024830703153014</v>
+        <v>1.04970513260469</v>
       </c>
       <c r="L14">
-        <v>1.003797412724561</v>
+        <v>1.029420254077219</v>
       </c>
       <c r="M14">
-        <v>1.02659891995826</v>
+        <v>1.051990990403352</v>
       </c>
       <c r="N14">
-        <v>1.014065269575653</v>
+        <v>1.043133108042678</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9835928503661001</v>
+        <v>1.01367978159534</v>
       </c>
       <c r="D15">
-        <v>1.010978453749519</v>
+        <v>1.036153724195926</v>
       </c>
       <c r="E15">
-        <v>0.9896157042340257</v>
+        <v>1.0155499016657</v>
       </c>
       <c r="F15">
-        <v>1.012849892379285</v>
+        <v>1.038543957059526</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.043601405928893</v>
+        <v>1.058026825168481</v>
       </c>
       <c r="J15">
-        <v>1.013509153070944</v>
+        <v>1.042346618693993</v>
       </c>
       <c r="K15">
-        <v>1.025625466060291</v>
+        <v>1.050356264171581</v>
       </c>
       <c r="L15">
-        <v>1.004663113239898</v>
+        <v>1.030114076259851</v>
       </c>
       <c r="M15">
-        <v>1.027462875370791</v>
+        <v>1.052705743402475</v>
       </c>
       <c r="N15">
-        <v>1.014948452319429</v>
+        <v>1.043826870451367</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9900085150304029</v>
+        <v>1.018907801276498</v>
       </c>
       <c r="D16">
-        <v>1.016116314350473</v>
+        <v>1.040446830970183</v>
       </c>
       <c r="E16">
-        <v>0.9951866005769733</v>
+        <v>1.020109074935088</v>
       </c>
       <c r="F16">
-        <v>1.018390162041114</v>
+        <v>1.043207385525431</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.046246930802797</v>
+        <v>1.060512161462374</v>
       </c>
       <c r="J16">
-        <v>1.018546161546559</v>
+        <v>1.046316365803608</v>
       </c>
       <c r="K16">
-        <v>1.030164713849224</v>
+        <v>1.054087637903526</v>
       </c>
       <c r="L16">
-        <v>1.00960637461947</v>
+        <v>1.034088863618163</v>
       </c>
       <c r="M16">
-        <v>1.03239940293793</v>
+        <v>1.056803488252999</v>
       </c>
       <c r="N16">
-        <v>1.019992613924833</v>
+        <v>1.047802255057213</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9939317028567964</v>
+        <v>1.022119630564633</v>
       </c>
       <c r="D17">
-        <v>1.019260870984027</v>
+        <v>1.043086173393479</v>
       </c>
       <c r="E17">
-        <v>0.9985943539513081</v>
+        <v>1.022910399101521</v>
       </c>
       <c r="F17">
-        <v>1.021782163993879</v>
+        <v>1.046075373620835</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.047860713554895</v>
+        <v>1.062035561556788</v>
       </c>
       <c r="J17">
-        <v>1.021625090794428</v>
+        <v>1.048753541950845</v>
       </c>
       <c r="K17">
-        <v>1.032939410110272</v>
+        <v>1.05637868821686</v>
       </c>
       <c r="L17">
-        <v>1.012627074204244</v>
+        <v>1.036528306573374</v>
       </c>
       <c r="M17">
-        <v>1.035418755920446</v>
+        <v>1.059321044079982</v>
       </c>
       <c r="N17">
-        <v>1.023075915605392</v>
+        <v>1.050242892274128</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9961855374556616</v>
+        <v>1.023969755259188</v>
       </c>
       <c r="D18">
-        <v>1.021068297257197</v>
+        <v>1.044607157771811</v>
       </c>
       <c r="E18">
-        <v>1.00055243028857</v>
+        <v>1.024524169517798</v>
       </c>
       <c r="F18">
-        <v>1.023732233677326</v>
+        <v>1.047728474559209</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.048786353171186</v>
+        <v>1.062911824380354</v>
       </c>
       <c r="J18">
-        <v>1.023393429178132</v>
+        <v>1.0501568273692</v>
       </c>
       <c r="K18">
-        <v>1.034533010909689</v>
+        <v>1.057697909546028</v>
       </c>
       <c r="L18">
-        <v>1.014361634874648</v>
+        <v>1.037932597793219</v>
       </c>
       <c r="M18">
-        <v>1.037153517006822</v>
+        <v>1.060771247908112</v>
       </c>
       <c r="N18">
-        <v>1.024846765232432</v>
+        <v>1.051648170518736</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9969483615737542</v>
+        <v>1.024596747600915</v>
       </c>
       <c r="D19">
-        <v>1.02168017857881</v>
+        <v>1.045122710403451</v>
       </c>
       <c r="E19">
-        <v>1.001215208182887</v>
+        <v>1.025071079114533</v>
       </c>
       <c r="F19">
-        <v>1.024392475953512</v>
+        <v>1.048288869683238</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.04909938975425</v>
+        <v>1.063208565626889</v>
       </c>
       <c r="J19">
-        <v>1.023991849264245</v>
+        <v>1.050632283413754</v>
       </c>
       <c r="K19">
-        <v>1.035072295935817</v>
+        <v>1.058144895040194</v>
       </c>
       <c r="L19">
-        <v>1.014948567470032</v>
+        <v>1.038408343684187</v>
       </c>
       <c r="M19">
-        <v>1.037740680621895</v>
+        <v>1.06126270791436</v>
       </c>
       <c r="N19">
-        <v>1.025446035143707</v>
+        <v>1.052124301765409</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9935143922729557</v>
+        <v>1.021777462971301</v>
       </c>
       <c r="D20">
-        <v>1.018926287406662</v>
+        <v>1.042804928242721</v>
       </c>
       <c r="E20">
-        <v>0.998231832210871</v>
+        <v>1.022611951832663</v>
       </c>
       <c r="F20">
-        <v>1.021421208672352</v>
+        <v>1.045769727531513</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.047689206422445</v>
+        <v>1.061873399657953</v>
       </c>
       <c r="J20">
-        <v>1.02129763298294</v>
+        <v>1.048493964014438</v>
       </c>
       <c r="K20">
-        <v>1.03264430907652</v>
+        <v>1.056134666096275</v>
       </c>
       <c r="L20">
-        <v>1.012305844135176</v>
+        <v>1.036268518289583</v>
       </c>
       <c r="M20">
-        <v>1.035097567259926</v>
+        <v>1.059052838658748</v>
       </c>
       <c r="N20">
-        <v>1.022747992766251</v>
+        <v>1.049982945707278</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9819308484130906</v>
+        <v>1.01233051477238</v>
       </c>
       <c r="D21">
-        <v>1.009648413014532</v>
+        <v>1.03504637186418</v>
       </c>
       <c r="E21">
-        <v>0.988172955279057</v>
+        <v>1.01437340825874</v>
       </c>
       <c r="F21">
-        <v>1.011416044762474</v>
+        <v>1.037341390456014</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.042914854202639</v>
+        <v>1.057384328006375</v>
       </c>
       <c r="J21">
-        <v>1.012203952881321</v>
+        <v>1.041321597732655</v>
       </c>
       <c r="K21">
-        <v>1.024449270146522</v>
+        <v>1.049392868407209</v>
       </c>
       <c r="L21">
-        <v>1.003381913223441</v>
+        <v>1.029087494435066</v>
       </c>
       <c r="M21">
-        <v>1.026184317017443</v>
+        <v>1.051648247210568</v>
       </c>
       <c r="N21">
-        <v>1.013641398595829</v>
+        <v>1.042800393842692</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9742922463921428</v>
+        <v>1.006157128290174</v>
       </c>
       <c r="D22">
-        <v>1.00354071093589</v>
+        <v>1.029983219567074</v>
       </c>
       <c r="E22">
-        <v>0.9815444622794032</v>
+        <v>1.008991493185421</v>
       </c>
       <c r="F22">
-        <v>1.004833467067327</v>
+        <v>1.031844397055529</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.039753597795527</v>
+        <v>1.054439456566403</v>
       </c>
       <c r="J22">
-        <v>1.006203766798926</v>
+        <v>1.036629437457801</v>
       </c>
       <c r="K22">
-        <v>1.019042350467813</v>
+        <v>1.044983218878896</v>
       </c>
       <c r="L22">
-        <v>0.9974906122019797</v>
+        <v>1.024386906755191</v>
       </c>
       <c r="M22">
-        <v>1.020309776318545</v>
+        <v>1.046810348638829</v>
       </c>
       <c r="N22">
-        <v>1.007632691560966</v>
+        <v>1.03810157016205</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9783777159218704</v>
+        <v>1.009453165789973</v>
       </c>
       <c r="D23">
-        <v>1.006806309337382</v>
+        <v>1.032685792765272</v>
       </c>
       <c r="E23">
-        <v>0.9850891703985115</v>
+        <v>1.011864746887</v>
       </c>
       <c r="F23">
-        <v>1.00835260246288</v>
+        <v>1.034778240785485</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.041445536030346</v>
+        <v>1.056012793676246</v>
       </c>
       <c r="J23">
-        <v>1.009413210201603</v>
+        <v>1.039135087823598</v>
       </c>
       <c r="K23">
-        <v>1.0219344110859</v>
+        <v>1.047337920493948</v>
       </c>
       <c r="L23">
-        <v>1.000642103241322</v>
+        <v>1.026897314269443</v>
       </c>
       <c r="M23">
-        <v>1.023451367738297</v>
+        <v>1.049393233693747</v>
       </c>
       <c r="N23">
-        <v>1.010846692741403</v>
+        <v>1.040610778838768</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9937030630954411</v>
+        <v>1.021932145471253</v>
       </c>
       <c r="D24">
-        <v>1.019077553611437</v>
+        <v>1.04293206779566</v>
       </c>
       <c r="E24">
-        <v>0.9983957312916893</v>
+        <v>1.022746869502876</v>
       </c>
       <c r="F24">
-        <v>1.021584396322366</v>
+        <v>1.045907896661308</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.047766751292494</v>
+        <v>1.061946711562309</v>
       </c>
       <c r="J24">
-        <v>1.02144568184895</v>
+        <v>1.048611312406728</v>
       </c>
       <c r="K24">
-        <v>1.032777728952363</v>
+        <v>1.056244981886895</v>
       </c>
       <c r="L24">
-        <v>1.012451078380413</v>
+        <v>1.036385962705064</v>
       </c>
       <c r="M24">
-        <v>1.035242779760027</v>
+        <v>1.059174085333731</v>
       </c>
       <c r="N24">
-        <v>1.022896251878633</v>
+        <v>1.050100460747744</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.01014867225642</v>
+        <v>1.035508753459975</v>
       </c>
       <c r="D25">
-        <v>1.032279632745925</v>
+        <v>1.054103330215479</v>
       </c>
       <c r="E25">
-        <v>1.012687984837594</v>
+        <v>1.034590117417408</v>
       </c>
       <c r="F25">
-        <v>1.035835739202776</v>
+        <v>1.05805583246887</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.054494185699147</v>
+        <v>1.06835397549289</v>
       </c>
       <c r="J25">
-        <v>1.034339254475948</v>
+        <v>1.058897476487122</v>
       </c>
       <c r="K25">
-        <v>1.044396694064693</v>
+        <v>1.065916050154707</v>
       </c>
       <c r="L25">
-        <v>1.025092478129239</v>
+        <v>1.046674189277151</v>
       </c>
       <c r="M25">
-        <v>1.047902103101032</v>
+        <v>1.069815121250964</v>
       </c>
       <c r="N25">
-        <v>1.035808134857674</v>
+        <v>1.060401232360972</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_63/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_63/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,46 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.04571345696573</v>
+        <v>1.022019347465253</v>
       </c>
       <c r="D2">
-        <v>1.062514824412384</v>
+        <v>1.039888119649111</v>
       </c>
       <c r="E2">
-        <v>1.043491947131174</v>
+        <v>1.025317800017045</v>
       </c>
       <c r="F2">
-        <v>1.067213760931284</v>
+        <v>1.044731598545438</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.073129100678315</v>
+        <v>1.058308365154199</v>
       </c>
       <c r="J2">
-        <v>1.066607855430857</v>
+        <v>1.043560834290267</v>
       </c>
       <c r="K2">
-        <v>1.073166876431736</v>
+        <v>1.050818371801066</v>
       </c>
       <c r="L2">
-        <v>1.05437688261603</v>
+        <v>1.036435335498535</v>
       </c>
       <c r="M2">
-        <v>1.077809871837403</v>
+        <v>1.055601035988075</v>
       </c>
       <c r="N2">
-        <v>1.0681225609272</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.017949052819786</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.052576781656517</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +480,46 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.052805184800464</v>
+        <v>1.026241884135272</v>
       </c>
       <c r="D3">
-        <v>1.068367105260409</v>
+        <v>1.042944446408404</v>
       </c>
       <c r="E3">
-        <v>1.049676911370751</v>
+        <v>1.028702283725223</v>
       </c>
       <c r="F3">
-        <v>1.073591864218882</v>
+        <v>1.047724097540784</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.07642306686368</v>
+        <v>1.05973180741891</v>
       </c>
       <c r="J3">
-        <v>1.071952984833818</v>
+        <v>1.046041863297586</v>
       </c>
       <c r="K3">
-        <v>1.078194022316551</v>
+        <v>1.053055819986171</v>
       </c>
       <c r="L3">
-        <v>1.059711301384144</v>
+        <v>1.038980626721985</v>
       </c>
       <c r="M3">
-        <v>1.083362366798338</v>
+        <v>1.057780691691536</v>
       </c>
       <c r="N3">
-        <v>1.073475281027008</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.018812860346106</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.054301802753761</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +527,46 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.057259613227122</v>
+        <v>1.028921402910159</v>
       </c>
       <c r="D4">
-        <v>1.072045616266125</v>
+        <v>1.044886764547163</v>
       </c>
       <c r="E4">
-        <v>1.053560784869231</v>
+        <v>1.030855218457829</v>
       </c>
       <c r="F4">
-        <v>1.077603927488015</v>
+        <v>1.049629224631016</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.078480452945428</v>
+        <v>1.060625549518863</v>
       </c>
       <c r="J4">
-        <v>1.075303959487929</v>
+        <v>1.047613153555035</v>
       </c>
       <c r="K4">
-        <v>1.081345839408954</v>
+        <v>1.054472025751887</v>
       </c>
       <c r="L4">
-        <v>1.063053056056596</v>
+        <v>1.040594981728993</v>
       </c>
       <c r="M4">
-        <v>1.086847970468171</v>
+        <v>1.05916341091115</v>
       </c>
       <c r="N4">
-        <v>1.076831014449489</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.019359447264607</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.055396111079847</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +574,46 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.059101790717826</v>
+        <v>1.030035647994666</v>
       </c>
       <c r="D5">
-        <v>1.073567457559142</v>
+        <v>1.045695091286255</v>
       </c>
       <c r="E5">
-        <v>1.055166709979899</v>
+        <v>1.031751706083069</v>
       </c>
       <c r="F5">
-        <v>1.079264498890144</v>
+        <v>1.050422879410521</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.079328481469354</v>
+        <v>1.060994874342801</v>
       </c>
       <c r="J5">
-        <v>1.076688217447696</v>
+        <v>1.048265776362056</v>
       </c>
       <c r="K5">
-        <v>1.082647862021088</v>
+        <v>1.055060030190706</v>
       </c>
       <c r="L5">
-        <v>1.064432901524294</v>
+        <v>1.041266059801899</v>
       </c>
       <c r="M5">
-        <v>1.088288939943008</v>
+        <v>1.059738256396823</v>
       </c>
       <c r="N5">
-        <v>1.078217238214337</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.019586346619506</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.055851053450761</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +621,46 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.059409361181608</v>
+        <v>1.030222029158444</v>
       </c>
       <c r="D6">
-        <v>1.073821575148579</v>
+        <v>1.045830337277016</v>
       </c>
       <c r="E6">
-        <v>1.055434816972384</v>
+        <v>1.031901733107381</v>
       </c>
       <c r="F6">
-        <v>1.079541825131706</v>
+        <v>1.050555717812879</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.079469901184901</v>
+        <v>1.061056513894563</v>
       </c>
       <c r="J6">
-        <v>1.076919239788156</v>
+        <v>1.048374894661773</v>
       </c>
       <c r="K6">
-        <v>1.082865161624964</v>
+        <v>1.055158332004577</v>
       </c>
       <c r="L6">
-        <v>1.064663151859791</v>
+        <v>1.041378297281172</v>
       </c>
       <c r="M6">
-        <v>1.088529491220802</v>
+        <v>1.059834402164524</v>
       </c>
       <c r="N6">
-        <v>1.078448588633018</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.019624276825154</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.055927144799395</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +668,46 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.057284346036113</v>
+        <v>1.028936339021267</v>
       </c>
       <c r="D7">
-        <v>1.072066046189427</v>
+        <v>1.044897597458882</v>
       </c>
       <c r="E7">
-        <v>1.053582347015212</v>
+        <v>1.030867230842979</v>
       </c>
       <c r="F7">
-        <v>1.07762621687071</v>
+        <v>1.049639857737419</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.07849184969122</v>
+        <v>1.060630509443513</v>
       </c>
       <c r="J7">
-        <v>1.075322550619043</v>
+        <v>1.047621904881437</v>
       </c>
       <c r="K7">
-        <v>1.08136332596344</v>
+        <v>1.05447991140262</v>
       </c>
       <c r="L7">
-        <v>1.063071590320514</v>
+        <v>1.040603978282243</v>
       </c>
       <c r="M7">
-        <v>1.086867318927688</v>
+        <v>1.059171117143046</v>
       </c>
       <c r="N7">
-        <v>1.076849631982142</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.019362490350937</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.055402209922981</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +715,46 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.048139040702826</v>
+        <v>1.023457542958254</v>
       </c>
       <c r="D8">
-        <v>1.064515886612982</v>
+        <v>1.04092847907872</v>
       </c>
       <c r="E8">
-        <v>1.045607568319916</v>
+        <v>1.026469436912397</v>
       </c>
       <c r="F8">
-        <v>1.069393979220076</v>
+        <v>1.045749523278418</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.074258159337519</v>
+        <v>1.058795164967038</v>
       </c>
       <c r="J8">
-        <v>1.068437371422425</v>
+        <v>1.044406503955058</v>
       </c>
       <c r="K8">
-        <v>1.074887505873667</v>
+        <v>1.051581182461601</v>
       </c>
       <c r="L8">
-        <v>1.056203260213471</v>
+        <v>1.037302413263536</v>
       </c>
       <c r="M8">
-        <v>1.079709378394692</v>
+        <v>1.056343495452391</v>
       </c>
       <c r="N8">
-        <v>1.069954675041325</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.018243582973558</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.053164378680395</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +762,46 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.03090975643729</v>
+        <v>1.013380199260277</v>
       </c>
       <c r="D9">
-        <v>1.0503165114023</v>
+        <v>1.033652758827665</v>
       </c>
       <c r="E9">
-        <v>1.030578088152892</v>
+        <v>1.018423720817617</v>
       </c>
       <c r="F9">
-        <v>1.053936198181838</v>
+        <v>1.038645098174807</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.066189932023008</v>
+        <v>1.055345369146545</v>
       </c>
       <c r="J9">
-        <v>1.055416318101953</v>
+        <v>1.038469157376958</v>
       </c>
       <c r="K9">
-        <v>1.062642775643869</v>
+        <v>1.046222459015763</v>
       </c>
       <c r="L9">
-        <v>1.043193800200798</v>
+        <v>1.031224794260082</v>
       </c>
       <c r="M9">
-        <v>1.066210870672054</v>
+        <v>1.051140825948193</v>
       </c>
       <c r="N9">
-        <v>1.056915130331602</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.016173908219217</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.049046874015616</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +809,46 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.018541607914695</v>
+        <v>1.006429283066677</v>
       </c>
       <c r="D10">
-        <v>1.040145998712189</v>
+        <v>1.028679770224896</v>
       </c>
       <c r="E10">
-        <v>1.019789702437025</v>
+        <v>1.01291817148025</v>
       </c>
       <c r="F10">
-        <v>1.042880540504694</v>
+        <v>1.033854505113513</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.060338300521873</v>
+        <v>1.052945480504264</v>
       </c>
       <c r="J10">
-        <v>1.046038411617334</v>
+        <v>1.034390117570596</v>
       </c>
       <c r="K10">
-        <v>1.053826359460408</v>
+        <v>1.0425498159226</v>
       </c>
       <c r="L10">
-        <v>1.033810610017128</v>
+        <v>1.027058036862499</v>
       </c>
       <c r="M10">
-        <v>1.056516454896352</v>
+        <v>1.047638274960398</v>
       </c>
       <c r="N10">
-        <v>1.047523906144113</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.014764358165416</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.04632582012671</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +856,46 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.01294222201973</v>
+        <v>1.003976548291297</v>
       </c>
       <c r="D11">
-        <v>1.035548371698207</v>
+        <v>1.027134891049559</v>
       </c>
       <c r="E11">
-        <v>1.014906777870578</v>
+        <v>1.011085674234517</v>
       </c>
       <c r="F11">
-        <v>1.037886538991688</v>
+        <v>1.032748406170886</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.057675664915755</v>
+        <v>1.052300586514405</v>
       </c>
       <c r="J11">
-        <v>1.041786327864596</v>
+        <v>1.033184828826295</v>
       </c>
       <c r="K11">
-        <v>1.049829654621837</v>
+        <v>1.041562605215807</v>
       </c>
       <c r="L11">
-        <v>1.029552945077402</v>
+        <v>1.025801515889379</v>
       </c>
       <c r="M11">
-        <v>1.052127672347864</v>
+        <v>1.047078077923127</v>
       </c>
       <c r="N11">
-        <v>1.043265783944726</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.014470347753315</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.046314789892092</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +903,46 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.010822314551147</v>
+        <v>1.003283423907802</v>
       </c>
       <c r="D12">
-        <v>1.033808892883345</v>
+        <v>1.026790108040703</v>
       </c>
       <c r="E12">
-        <v>1.013058417572447</v>
+        <v>1.010618791995562</v>
       </c>
       <c r="F12">
-        <v>1.035997651360461</v>
+        <v>1.032696535747816</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.056665652624952</v>
+        <v>1.052210196834329</v>
       </c>
       <c r="J12">
-        <v>1.040175613241377</v>
+        <v>1.032949470476517</v>
       </c>
       <c r="K12">
-        <v>1.048315819277241</v>
+        <v>1.041421441297203</v>
       </c>
       <c r="L12">
-        <v>1.027939643408629</v>
+        <v>1.025545341696414</v>
       </c>
       <c r="M12">
-        <v>1.050466228935812</v>
+        <v>1.047223032304971</v>
       </c>
       <c r="N12">
-        <v>1.04165278192199</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.014487577319322</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.046753158445383</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +950,46 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.011278913509985</v>
+        <v>1.003903159392828</v>
       </c>
       <c r="D13">
-        <v>1.034183497694758</v>
+        <v>1.027350992148163</v>
       </c>
       <c r="E13">
-        <v>1.013456513707037</v>
+        <v>1.011172993524286</v>
       </c>
       <c r="F13">
-        <v>1.036404407067801</v>
+        <v>1.033466786570214</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.056883282069641</v>
+        <v>1.052548476185</v>
       </c>
       <c r="J13">
-        <v>1.04052257789009</v>
+        <v>1.033451223791953</v>
       </c>
       <c r="K13">
-        <v>1.048641908430436</v>
+        <v>1.041929962393777</v>
       </c>
       <c r="L13">
-        <v>1.028287186567494</v>
+        <v>1.026045896146645</v>
       </c>
       <c r="M13">
-        <v>1.050824073029649</v>
+        <v>1.047937746705164</v>
       </c>
       <c r="N13">
-        <v>1.042000239300302</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.014747074249402</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.047592892990616</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +997,46 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.012767827974388</v>
+        <v>1.004926985161663</v>
       </c>
       <c r="D14">
-        <v>1.035405249085021</v>
+        <v>1.028149199648121</v>
       </c>
       <c r="E14">
-        <v>1.014754715937779</v>
+        <v>1.012018885928448</v>
       </c>
       <c r="F14">
-        <v>1.037731111928503</v>
+        <v>1.034373961188557</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.057592615375841</v>
+        <v>1.052976103332687</v>
       </c>
       <c r="J14">
-        <v>1.041653840110355</v>
+        <v>1.034131585918999</v>
       </c>
       <c r="K14">
-        <v>1.04970513260469</v>
+        <v>1.04257539523658</v>
       </c>
       <c r="L14">
-        <v>1.029420254077219</v>
+        <v>1.026734324498338</v>
       </c>
       <c r="M14">
-        <v>1.051990990403352</v>
+        <v>1.048691657427868</v>
       </c>
       <c r="N14">
-        <v>1.043133108042678</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.015035956907856</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.048361029179795</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1044,46 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.01367978159534</v>
+        <v>1.005467902688016</v>
       </c>
       <c r="D15">
-        <v>1.036153724195926</v>
+        <v>1.028548898048556</v>
       </c>
       <c r="E15">
-        <v>1.0155499016657</v>
+        <v>1.012453151044903</v>
       </c>
       <c r="F15">
-        <v>1.038543957059526</v>
+        <v>1.034788982207924</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.058026825168481</v>
+        <v>1.053179214649806</v>
       </c>
       <c r="J15">
-        <v>1.042346618693993</v>
+        <v>1.034465242852977</v>
       </c>
       <c r="K15">
-        <v>1.050356264171581</v>
+        <v>1.042882732294961</v>
       </c>
       <c r="L15">
-        <v>1.030114076259851</v>
+        <v>1.027073334515397</v>
       </c>
       <c r="M15">
-        <v>1.052705743402475</v>
+        <v>1.049014900260663</v>
       </c>
       <c r="N15">
-        <v>1.043826870451367</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.015162279249276</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.048653830320163</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1091,46 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.018907801276498</v>
+        <v>1.008295928298509</v>
       </c>
       <c r="D16">
-        <v>1.040446830970183</v>
+        <v>1.030554146926298</v>
       </c>
       <c r="E16">
-        <v>1.020109074935088</v>
+        <v>1.014673873047402</v>
       </c>
       <c r="F16">
-        <v>1.043207385525431</v>
+        <v>1.036702069644828</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.060512161462374</v>
+        <v>1.054149878577109</v>
       </c>
       <c r="J16">
-        <v>1.046316365803608</v>
+        <v>1.036108478786802</v>
       </c>
       <c r="K16">
-        <v>1.054087637903526</v>
+        <v>1.044357688628986</v>
       </c>
       <c r="L16">
-        <v>1.034088863618163</v>
+        <v>1.028747230982292</v>
       </c>
       <c r="M16">
-        <v>1.056803488252999</v>
+        <v>1.050404008223232</v>
       </c>
       <c r="N16">
-        <v>1.047802255057213</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.015712428679237</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.049713317280042</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1138,46 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.022119630564633</v>
+        <v>1.009930013148677</v>
       </c>
       <c r="D17">
-        <v>1.043086173393479</v>
+        <v>1.031674814183673</v>
       </c>
       <c r="E17">
-        <v>1.022910399101521</v>
+        <v>1.01593685660634</v>
       </c>
       <c r="F17">
-        <v>1.046075373620835</v>
+        <v>1.037689910498202</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.062035561556788</v>
+        <v>1.054667636343418</v>
       </c>
       <c r="J17">
-        <v>1.048753541950845</v>
+        <v>1.037011872166446</v>
       </c>
       <c r="K17">
-        <v>1.05637868821686</v>
+        <v>1.045149362972313</v>
       </c>
       <c r="L17">
-        <v>1.036528306573374</v>
+        <v>1.029671108288687</v>
       </c>
       <c r="M17">
-        <v>1.059321044079982</v>
+        <v>1.051067867000043</v>
       </c>
       <c r="N17">
-        <v>1.050242892274128</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.015982822679119</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.050109915589515</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1185,46 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.023969755259188</v>
+        <v>1.010674183962362</v>
       </c>
       <c r="D18">
-        <v>1.044607157771811</v>
+        <v>1.032113285286755</v>
       </c>
       <c r="E18">
-        <v>1.024524169517798</v>
+        <v>1.016474390945244</v>
       </c>
       <c r="F18">
-        <v>1.047728474559209</v>
+        <v>1.037925326344522</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.062911824380354</v>
+        <v>1.054828009020207</v>
       </c>
       <c r="J18">
-        <v>1.0501568273692</v>
+        <v>1.037339911394531</v>
       </c>
       <c r="K18">
-        <v>1.057697909546028</v>
+        <v>1.045399805523071</v>
       </c>
       <c r="L18">
-        <v>1.037932597793219</v>
+        <v>1.03001468762832</v>
       </c>
       <c r="M18">
-        <v>1.060771247908112</v>
+        <v>1.051120026811333</v>
       </c>
       <c r="N18">
-        <v>1.051648170518736</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.016026108818063</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.049915348965801</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1232,46 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.024596747600915</v>
+        <v>1.010595562509216</v>
       </c>
       <c r="D19">
-        <v>1.045122710403451</v>
+        <v>1.031916281753918</v>
       </c>
       <c r="E19">
-        <v>1.025071079114533</v>
+        <v>1.016340162838884</v>
       </c>
       <c r="F19">
-        <v>1.048288869683238</v>
+        <v>1.037459893144132</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.063208565626889</v>
+        <v>1.054655203334485</v>
       </c>
       <c r="J19">
-        <v>1.050632283413754</v>
+        <v>1.037131848943541</v>
       </c>
       <c r="K19">
-        <v>1.058144895040194</v>
+        <v>1.045144221878108</v>
       </c>
       <c r="L19">
-        <v>1.038408343684187</v>
+        <v>1.02981961733079</v>
       </c>
       <c r="M19">
-        <v>1.06126270791436</v>
+        <v>1.050600648421951</v>
       </c>
       <c r="N19">
-        <v>1.052124301765409</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.015862129146467</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.049182088296384</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1279,46 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.021777462971301</v>
+        <v>1.008234664434331</v>
       </c>
       <c r="D20">
-        <v>1.042804928242721</v>
+        <v>1.029971024163321</v>
       </c>
       <c r="E20">
-        <v>1.022611951832663</v>
+        <v>1.014346196211166</v>
       </c>
       <c r="F20">
-        <v>1.045769727531513</v>
+        <v>1.035099522124461</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.061873399657953</v>
+        <v>1.053573392464614</v>
       </c>
       <c r="J20">
-        <v>1.048493964014438</v>
+        <v>1.035451803001836</v>
       </c>
       <c r="K20">
-        <v>1.056134666096275</v>
+        <v>1.043506575267808</v>
       </c>
       <c r="L20">
-        <v>1.036268518289583</v>
+        <v>1.028141390054722</v>
       </c>
       <c r="M20">
-        <v>1.059052838658748</v>
+        <v>1.048552043672872</v>
       </c>
       <c r="N20">
-        <v>1.049982945707278</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.01513195020911</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.047038514779241</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1326,46 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.01233051477238</v>
+        <v>1.002884896023765</v>
       </c>
       <c r="D21">
-        <v>1.03504637186418</v>
+        <v>1.026111522327287</v>
       </c>
       <c r="E21">
-        <v>1.01437340825874</v>
+        <v>1.010101520752708</v>
       </c>
       <c r="F21">
-        <v>1.037341390456014</v>
+        <v>1.031314060004831</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.057384328006375</v>
+        <v>1.051669292514095</v>
       </c>
       <c r="J21">
-        <v>1.041321597732655</v>
+        <v>1.032262494149004</v>
       </c>
       <c r="K21">
-        <v>1.049392868407209</v>
+        <v>1.040614533407623</v>
       </c>
       <c r="L21">
-        <v>1.029087494435066</v>
+        <v>1.024894011038766</v>
       </c>
       <c r="M21">
-        <v>1.051648247210568</v>
+        <v>1.045725509409176</v>
       </c>
       <c r="N21">
-        <v>1.042800393842692</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.014006829792729</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.044761051683147</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1373,46 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.006157128290174</v>
+        <v>0.9994864001542847</v>
       </c>
       <c r="D22">
-        <v>1.029983219567074</v>
+        <v>1.023677910468111</v>
       </c>
       <c r="E22">
-        <v>1.008991493185421</v>
+        <v>1.00741886672744</v>
       </c>
       <c r="F22">
-        <v>1.031844397055529</v>
+        <v>1.028954724096035</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.054439456566403</v>
+        <v>1.050463860869802</v>
       </c>
       <c r="J22">
-        <v>1.036629437457801</v>
+        <v>1.030249152063427</v>
       </c>
       <c r="K22">
-        <v>1.044983218878896</v>
+        <v>1.038794457564934</v>
       </c>
       <c r="L22">
-        <v>1.024386906755191</v>
+        <v>1.022844773287868</v>
       </c>
       <c r="M22">
-        <v>1.046810348638829</v>
+        <v>1.043973607180996</v>
       </c>
       <c r="N22">
-        <v>1.03810157016205</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.013303324951041</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.043374545349173</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1420,46 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.009453165789973</v>
+        <v>1.001295261943646</v>
       </c>
       <c r="D23">
-        <v>1.032685792765272</v>
+        <v>1.024972690365592</v>
       </c>
       <c r="E23">
-        <v>1.011864746887</v>
+        <v>1.008845986032698</v>
       </c>
       <c r="F23">
-        <v>1.034778240785485</v>
+        <v>1.030209611682825</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.056012793676246</v>
+        <v>1.051106290752381</v>
       </c>
       <c r="J23">
-        <v>1.039135087823598</v>
+        <v>1.031320936868381</v>
       </c>
       <c r="K23">
-        <v>1.047337920493948</v>
+        <v>1.039763406515053</v>
       </c>
       <c r="L23">
-        <v>1.026897314269443</v>
+        <v>1.023935415505757</v>
       </c>
       <c r="M23">
-        <v>1.049393233693747</v>
+        <v>1.044905937486579</v>
       </c>
       <c r="N23">
-        <v>1.040610778838768</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.013677856209057</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.044112418974398</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1467,46 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.021932145471253</v>
+        <v>1.008259479904744</v>
       </c>
       <c r="D24">
-        <v>1.04293206779566</v>
+        <v>1.029968577256338</v>
       </c>
       <c r="E24">
-        <v>1.022746869502876</v>
+        <v>1.014356119453316</v>
       </c>
       <c r="F24">
-        <v>1.045907896661308</v>
+        <v>1.035059710829468</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.061946711562309</v>
+        <v>1.053561182667709</v>
       </c>
       <c r="J24">
-        <v>1.048611312406728</v>
+        <v>1.035443253582246</v>
       </c>
       <c r="K24">
-        <v>1.056244981886895</v>
+        <v>1.043489085719894</v>
       </c>
       <c r="L24">
-        <v>1.036385962705064</v>
+        <v>1.028135730241809</v>
       </c>
       <c r="M24">
-        <v>1.059174085333731</v>
+        <v>1.048497895628589</v>
       </c>
       <c r="N24">
-        <v>1.050100460747744</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.015117761735553</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.046955193342398</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1514,43 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.035508753459975</v>
+        <v>1.016038359250064</v>
       </c>
       <c r="D25">
-        <v>1.054103330215479</v>
+        <v>1.035568700630539</v>
       </c>
       <c r="E25">
-        <v>1.034590117417408</v>
+        <v>1.020540664903695</v>
       </c>
       <c r="F25">
-        <v>1.05805583246887</v>
+        <v>1.040512761950419</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.06835397549289</v>
+        <v>1.056263730614013</v>
       </c>
       <c r="J25">
-        <v>1.058897476487122</v>
+        <v>1.040037766879973</v>
       </c>
       <c r="K25">
-        <v>1.065916050154707</v>
+        <v>1.047638856255493</v>
       </c>
       <c r="L25">
-        <v>1.046674189277151</v>
+        <v>1.032828267230131</v>
       </c>
       <c r="M25">
-        <v>1.069815121250964</v>
+        <v>1.052513114573049</v>
       </c>
       <c r="N25">
-        <v>1.060401232360972</v>
+        <v>1.016721083259952</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.050132934980524</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_63/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_63/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,46 +439,55 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.022019347465253</v>
+        <v>1.020113841507247</v>
       </c>
       <c r="D2">
-        <v>1.039888119649111</v>
+        <v>1.037262848226932</v>
       </c>
       <c r="E2">
-        <v>1.025317800017045</v>
+        <v>1.023718403731544</v>
       </c>
       <c r="F2">
-        <v>1.044731598545438</v>
+        <v>1.042864800155126</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.058308365154199</v>
+        <v>1.056819998940386</v>
       </c>
       <c r="J2">
-        <v>1.043560834290267</v>
+        <v>1.04170915466089</v>
       </c>
       <c r="K2">
-        <v>1.050818371801066</v>
+        <v>1.048226359644322</v>
       </c>
       <c r="L2">
-        <v>1.036435335498535</v>
+        <v>1.03485690441274</v>
       </c>
       <c r="M2">
-        <v>1.055601035988075</v>
+        <v>1.053757593690835</v>
       </c>
       <c r="N2">
-        <v>1.017949052819786</v>
+        <v>1.017969401544705</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.052576781656517</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.051117843178204</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.024695580462573</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -480,46 +495,55 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.026241884135272</v>
+        <v>1.024062743153228</v>
       </c>
       <c r="D3">
-        <v>1.042944446408404</v>
+        <v>1.039999937770447</v>
       </c>
       <c r="E3">
-        <v>1.028702283725223</v>
+        <v>1.026857538879825</v>
       </c>
       <c r="F3">
-        <v>1.047724097540784</v>
+        <v>1.04562374955178</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.05973180741891</v>
+        <v>1.058049671490149</v>
       </c>
       <c r="J3">
-        <v>1.046041863297586</v>
+        <v>1.043918255764172</v>
       </c>
       <c r="K3">
-        <v>1.053055819986171</v>
+        <v>1.050145368024372</v>
       </c>
       <c r="L3">
-        <v>1.038980626721985</v>
+        <v>1.037157929105384</v>
       </c>
       <c r="M3">
-        <v>1.057780691691536</v>
+        <v>1.055704339594739</v>
       </c>
       <c r="N3">
-        <v>1.018812860346106</v>
+        <v>1.018574314385454</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.054301802753761</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.052658538190202</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.025116959319342</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -527,46 +551,55 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.028921402910159</v>
+        <v>1.026570700742531</v>
       </c>
       <c r="D4">
-        <v>1.044886764547163</v>
+        <v>1.041741092669828</v>
       </c>
       <c r="E4">
-        <v>1.030855218457829</v>
+        <v>1.028856559554438</v>
       </c>
       <c r="F4">
-        <v>1.049629224631016</v>
+        <v>1.047381947313985</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.060625549518863</v>
+        <v>1.058821173226661</v>
       </c>
       <c r="J4">
-        <v>1.047613153555035</v>
+        <v>1.045318309555621</v>
       </c>
       <c r="K4">
-        <v>1.054472025751887</v>
+        <v>1.051360546685657</v>
       </c>
       <c r="L4">
-        <v>1.040594981728993</v>
+        <v>1.038618752387172</v>
       </c>
       <c r="M4">
-        <v>1.05916341091115</v>
+        <v>1.056940265450627</v>
       </c>
       <c r="N4">
-        <v>1.019359447264607</v>
+        <v>1.018957522845698</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.055396111079847</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.053636673863438</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.025381196339792</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -574,46 +607,55 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.030035647994666</v>
+        <v>1.027614072923643</v>
       </c>
       <c r="D5">
-        <v>1.045695091286255</v>
+        <v>1.042466089969415</v>
       </c>
       <c r="E5">
-        <v>1.031751706083069</v>
+        <v>1.029689450780518</v>
       </c>
       <c r="F5">
-        <v>1.050422879410521</v>
+        <v>1.048114792501912</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.060994874342801</v>
+        <v>1.059139828761466</v>
       </c>
       <c r="J5">
-        <v>1.048265776362056</v>
+        <v>1.045900027850484</v>
       </c>
       <c r="K5">
-        <v>1.055060030190706</v>
+        <v>1.051865194988892</v>
       </c>
       <c r="L5">
-        <v>1.041266059801899</v>
+        <v>1.039226324955988</v>
       </c>
       <c r="M5">
-        <v>1.059738256396823</v>
+        <v>1.057454297152294</v>
       </c>
       <c r="N5">
-        <v>1.019586346619506</v>
+        <v>1.019116702463291</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.055851053450761</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.054043488140556</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.025490301751096</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -621,46 +663,55 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.030222029158444</v>
+        <v>1.027788625779765</v>
       </c>
       <c r="D6">
-        <v>1.045830337277016</v>
+        <v>1.042587415745038</v>
       </c>
       <c r="E6">
-        <v>1.031901733107381</v>
+        <v>1.029828863314535</v>
       </c>
       <c r="F6">
-        <v>1.050555717812879</v>
+        <v>1.048237475727786</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.061056513894563</v>
+        <v>1.059193002084334</v>
       </c>
       <c r="J6">
-        <v>1.048374894661773</v>
+        <v>1.045997303191596</v>
       </c>
       <c r="K6">
-        <v>1.055158332004577</v>
+        <v>1.05194956738028</v>
       </c>
       <c r="L6">
-        <v>1.041378297281172</v>
+        <v>1.039327959285798</v>
       </c>
       <c r="M6">
-        <v>1.059834402164524</v>
+        <v>1.057540283587823</v>
       </c>
       <c r="N6">
-        <v>1.019624276825154</v>
+        <v>1.01914331801668</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.055927144799395</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.054111539388215</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.025508505969718</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -668,46 +719,55 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.028936339021267</v>
+        <v>1.026594604540421</v>
       </c>
       <c r="D7">
-        <v>1.044897597458882</v>
+        <v>1.041758493125993</v>
       </c>
       <c r="E7">
-        <v>1.030867230842979</v>
+        <v>1.028877000861142</v>
       </c>
       <c r="F7">
-        <v>1.049639857737419</v>
+        <v>1.047398034877086</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.060630509443513</v>
+        <v>1.058830903032436</v>
       </c>
       <c r="J7">
-        <v>1.047621904881437</v>
+        <v>1.045335792445826</v>
       </c>
       <c r="K7">
-        <v>1.05447991140262</v>
+        <v>1.051374916022797</v>
       </c>
       <c r="L7">
-        <v>1.040603978282243</v>
+        <v>1.038636074955913</v>
       </c>
       <c r="M7">
-        <v>1.059171117143046</v>
+        <v>1.056953358828451</v>
       </c>
       <c r="N7">
-        <v>1.019362490350937</v>
+        <v>1.018988858348552</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.055402209922981</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.053647036209599</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.0253854242732</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -715,46 +775,55 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.023457542958254</v>
+        <v>1.021488946477793</v>
       </c>
       <c r="D8">
-        <v>1.04092847907872</v>
+        <v>1.038217910032952</v>
       </c>
       <c r="E8">
-        <v>1.026469436912397</v>
+        <v>1.02481481024409</v>
       </c>
       <c r="F8">
-        <v>1.045749523278418</v>
+        <v>1.043822263159513</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.058795164967038</v>
+        <v>1.05725742164308</v>
       </c>
       <c r="J8">
-        <v>1.044406503955058</v>
+        <v>1.042491647256132</v>
       </c>
       <c r="K8">
-        <v>1.051581182461601</v>
+        <v>1.048903932355492</v>
       </c>
       <c r="L8">
-        <v>1.037302413263536</v>
+        <v>1.035668821303216</v>
       </c>
       <c r="M8">
-        <v>1.056343495452391</v>
+        <v>1.054439632831519</v>
       </c>
       <c r="N8">
-        <v>1.018243582973558</v>
+        <v>1.018264613879547</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.053164378680395</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.051657623434194</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.02484839769993</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -762,46 +831,55 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.013380199260277</v>
+        <v>1.012082590694821</v>
       </c>
       <c r="D9">
-        <v>1.033652758827665</v>
+        <v>1.031716682421058</v>
       </c>
       <c r="E9">
-        <v>1.018423720817617</v>
+        <v>1.017370236377708</v>
       </c>
       <c r="F9">
-        <v>1.038645098174807</v>
+        <v>1.037286277248925</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.055345369146545</v>
+        <v>1.054277149114339</v>
       </c>
       <c r="J9">
-        <v>1.038469157376958</v>
+        <v>1.037215779419229</v>
       </c>
       <c r="K9">
-        <v>1.046222459015763</v>
+        <v>1.044315314936589</v>
       </c>
       <c r="L9">
-        <v>1.031224794260082</v>
+        <v>1.030187642571701</v>
       </c>
       <c r="M9">
-        <v>1.051140825948193</v>
+        <v>1.049802049317992</v>
       </c>
       <c r="N9">
-        <v>1.016173908219217</v>
+        <v>1.016829290254537</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.049046874015616</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.047987333689769</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.023827003255757</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -809,46 +887,55 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.006429283066677</v>
+        <v>1.00564323409899</v>
       </c>
       <c r="D10">
-        <v>1.028679770224896</v>
+        <v>1.027313058262276</v>
       </c>
       <c r="E10">
-        <v>1.01291817148025</v>
+        <v>1.01232266463075</v>
       </c>
       <c r="F10">
-        <v>1.033854505113513</v>
+        <v>1.032917676875293</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.052945480504264</v>
+        <v>1.05222441046087</v>
       </c>
       <c r="J10">
-        <v>1.034390117570596</v>
+        <v>1.033634728978869</v>
       </c>
       <c r="K10">
-        <v>1.0425498159226</v>
+        <v>1.041206077611496</v>
       </c>
       <c r="L10">
-        <v>1.027058036862499</v>
+        <v>1.026472937742134</v>
       </c>
       <c r="M10">
-        <v>1.047638274960398</v>
+        <v>1.046716983489785</v>
       </c>
       <c r="N10">
-        <v>1.014764358165416</v>
+        <v>1.015977839354838</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.04632582012671</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.045596729808503</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.023136096301561</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -856,46 +943,55 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.003976548291297</v>
+        <v>1.003363201851599</v>
       </c>
       <c r="D11">
-        <v>1.027134891049559</v>
+        <v>1.025952987504561</v>
       </c>
       <c r="E11">
-        <v>1.011085674234517</v>
+        <v>1.010635469789982</v>
       </c>
       <c r="F11">
-        <v>1.032748406170886</v>
+        <v>1.031950738236584</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.052300586514405</v>
+        <v>1.05169364148857</v>
       </c>
       <c r="J11">
-        <v>1.033184828826295</v>
+        <v>1.032596733933674</v>
       </c>
       <c r="K11">
-        <v>1.041562605215807</v>
+        <v>1.040401521396678</v>
       </c>
       <c r="L11">
-        <v>1.025801515889379</v>
+        <v>1.025359565713192</v>
       </c>
       <c r="M11">
-        <v>1.047078077923127</v>
+        <v>1.046294257441917</v>
       </c>
       <c r="N11">
-        <v>1.014470347753315</v>
+        <v>1.016005618119252</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.046314789892092</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.045694797645107</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.02303594150571</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -903,46 +999,55 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.003283423907802</v>
+        <v>1.002692566971954</v>
       </c>
       <c r="D12">
-        <v>1.026790108040703</v>
+        <v>1.02563530728916</v>
       </c>
       <c r="E12">
-        <v>1.010618791995562</v>
+        <v>1.010179337390556</v>
       </c>
       <c r="F12">
-        <v>1.032696535747816</v>
+        <v>1.031919253978588</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.052210196834329</v>
+        <v>1.051619497648516</v>
       </c>
       <c r="J12">
-        <v>1.032949470476517</v>
+        <v>1.032383408068256</v>
       </c>
       <c r="K12">
-        <v>1.041421441297203</v>
+        <v>1.0402873211145</v>
       </c>
       <c r="L12">
-        <v>1.025545341696414</v>
+        <v>1.025114081734594</v>
       </c>
       <c r="M12">
-        <v>1.047223032304971</v>
+        <v>1.046459458049996</v>
       </c>
       <c r="N12">
-        <v>1.014487577319322</v>
+        <v>1.016110521846519</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.046753158445383</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.046149381907942</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.023067300603834</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -950,46 +1055,55 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.003903159392828</v>
+        <v>1.003207446648303</v>
       </c>
       <c r="D13">
-        <v>1.027350992148163</v>
+        <v>1.026093655002124</v>
       </c>
       <c r="E13">
-        <v>1.011172993524286</v>
+        <v>1.010630044211869</v>
       </c>
       <c r="F13">
-        <v>1.033466786570214</v>
+        <v>1.032611746390395</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.052548476185</v>
+        <v>1.051892779422958</v>
       </c>
       <c r="J13">
-        <v>1.033451223791953</v>
+        <v>1.03278455222913</v>
       </c>
       <c r="K13">
-        <v>1.041929962393777</v>
+        <v>1.040695038062266</v>
       </c>
       <c r="L13">
-        <v>1.026045896146645</v>
+        <v>1.025513024371345</v>
       </c>
       <c r="M13">
-        <v>1.047937746705164</v>
+        <v>1.047097707557977</v>
       </c>
       <c r="N13">
-        <v>1.014747074249402</v>
+        <v>1.016246101364227</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.047592892990616</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.04692881842462</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.023202189539483</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -997,46 +1111,55 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.004926985161663</v>
+        <v>1.004102851957736</v>
       </c>
       <c r="D14">
-        <v>1.028149199648121</v>
+        <v>1.026763848713086</v>
       </c>
       <c r="E14">
-        <v>1.012018885928448</v>
+        <v>1.011354810982121</v>
       </c>
       <c r="F14">
-        <v>1.034373961188557</v>
+        <v>1.033422014487692</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.052976103332687</v>
+        <v>1.052239665027452</v>
       </c>
       <c r="J14">
-        <v>1.034131585918999</v>
+        <v>1.033341349656502</v>
       </c>
       <c r="K14">
-        <v>1.04257539523658</v>
+        <v>1.041214423397114</v>
       </c>
       <c r="L14">
-        <v>1.026734324498338</v>
+        <v>1.026082415041097</v>
       </c>
       <c r="M14">
-        <v>1.048691657427868</v>
+        <v>1.047756193873191</v>
       </c>
       <c r="N14">
-        <v>1.015035956907856</v>
+        <v>1.016355637044762</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.048361029179795</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.047621617623649</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.023343008577475</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1044,46 +1167,55 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.005467902688016</v>
+        <v>1.004584862697451</v>
       </c>
       <c r="D15">
-        <v>1.028548898048556</v>
+        <v>1.027103986686379</v>
       </c>
       <c r="E15">
-        <v>1.012453151044903</v>
+        <v>1.011735048774268</v>
       </c>
       <c r="F15">
-        <v>1.034788982207924</v>
+        <v>1.033792024245978</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.053179214649806</v>
+        <v>1.052405340228751</v>
       </c>
       <c r="J15">
-        <v>1.034465242852977</v>
+        <v>1.033618199565853</v>
       </c>
       <c r="K15">
-        <v>1.042882732294961</v>
+        <v>1.041463051461289</v>
       </c>
       <c r="L15">
-        <v>1.027073334515397</v>
+        <v>1.02636828380741</v>
       </c>
       <c r="M15">
-        <v>1.049014900260663</v>
+        <v>1.048035070663763</v>
       </c>
       <c r="N15">
-        <v>1.015162279249276</v>
+        <v>1.016394606125178</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.048653830320163</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.047879371018297</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.02340305677646</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1091,46 +1223,55 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.008295928298509</v>
+        <v>1.007151937173116</v>
       </c>
       <c r="D16">
-        <v>1.030554146926298</v>
+        <v>1.028838282437147</v>
       </c>
       <c r="E16">
-        <v>1.014673873047402</v>
+        <v>1.01372357162348</v>
       </c>
       <c r="F16">
-        <v>1.036702069644828</v>
+        <v>1.035501233754486</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.054149878577109</v>
+        <v>1.053206882908661</v>
       </c>
       <c r="J16">
-        <v>1.036108478786802</v>
+        <v>1.035008757036745</v>
       </c>
       <c r="K16">
-        <v>1.044357688628986</v>
+        <v>1.042670460539885</v>
       </c>
       <c r="L16">
-        <v>1.028747230982292</v>
+        <v>1.027813422777094</v>
       </c>
       <c r="M16">
-        <v>1.050404008223232</v>
+        <v>1.049222895893614</v>
       </c>
       <c r="N16">
-        <v>1.015712428679237</v>
+        <v>1.016550708789981</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.049713317280042</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16">
+        <v>1.048779737117342</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.02366120444593</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1138,46 +1279,55 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.009930013148677</v>
+        <v>1.008663396562301</v>
       </c>
       <c r="D17">
-        <v>1.031674814183673</v>
+        <v>1.029825708079477</v>
       </c>
       <c r="E17">
-        <v>1.01593685660634</v>
+        <v>1.01488065883932</v>
       </c>
       <c r="F17">
-        <v>1.037689910498202</v>
+        <v>1.036389632787232</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.054667636343418</v>
+        <v>1.053642543916991</v>
       </c>
       <c r="J17">
-        <v>1.037011872166446</v>
+        <v>1.035792676420843</v>
       </c>
       <c r="K17">
-        <v>1.045149362972313</v>
+        <v>1.043330241635641</v>
       </c>
       <c r="L17">
-        <v>1.029671108288687</v>
+        <v>1.028632711618348</v>
       </c>
       <c r="M17">
-        <v>1.051067867000043</v>
+        <v>1.049788347767826</v>
       </c>
       <c r="N17">
-        <v>1.015982822679119</v>
+        <v>1.016642373200051</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.050109915589515</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16">
+        <v>1.049098452464615</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.02378633970555</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1185,46 +1335,55 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.010674183962362</v>
+        <v>1.009382710340394</v>
       </c>
       <c r="D18">
-        <v>1.032113285286755</v>
+        <v>1.030230682833433</v>
       </c>
       <c r="E18">
-        <v>1.016474390945244</v>
+        <v>1.015402248656772</v>
       </c>
       <c r="F18">
-        <v>1.037925326344522</v>
+        <v>1.036600620034888</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.054828009020207</v>
+        <v>1.053783428444848</v>
       </c>
       <c r="J18">
-        <v>1.037339911394531</v>
+        <v>1.036095877115347</v>
       </c>
       <c r="K18">
-        <v>1.045399805523071</v>
+        <v>1.043547229568924</v>
       </c>
       <c r="L18">
-        <v>1.03001468762832</v>
+        <v>1.028960311910077</v>
       </c>
       <c r="M18">
-        <v>1.051120026811333</v>
+        <v>1.049816132536114</v>
       </c>
       <c r="N18">
-        <v>1.016026108818063</v>
+        <v>1.016640170782404</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.049915348965801</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16">
+        <v>1.048884405486755</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.023796957250747</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1232,46 +1391,55 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.010595562509216</v>
+        <v>1.009362449388791</v>
       </c>
       <c r="D19">
-        <v>1.031916281753918</v>
+        <v>1.030087311850732</v>
       </c>
       <c r="E19">
-        <v>1.016340162838884</v>
+        <v>1.015328548864218</v>
       </c>
       <c r="F19">
-        <v>1.037459893144132</v>
+        <v>1.036175904488859</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.054655203334485</v>
+        <v>1.053645414967087</v>
       </c>
       <c r="J19">
-        <v>1.037131848943541</v>
+        <v>1.035943773456584</v>
       </c>
       <c r="K19">
-        <v>1.045144221878108</v>
+        <v>1.043344280114346</v>
       </c>
       <c r="L19">
-        <v>1.02981961733079</v>
+        <v>1.028824681706078</v>
       </c>
       <c r="M19">
-        <v>1.050600648421951</v>
+        <v>1.049336746983209</v>
       </c>
       <c r="N19">
-        <v>1.015862129146467</v>
+        <v>1.016530831056336</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.049182088296384</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16">
+        <v>1.048182444715405</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.023699200882441</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1279,46 +1447,55 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.008234664434331</v>
+        <v>1.007286623356388</v>
       </c>
       <c r="D20">
-        <v>1.029971024163321</v>
+        <v>1.028433770707885</v>
       </c>
       <c r="E20">
-        <v>1.014346196211166</v>
+        <v>1.013604258053335</v>
       </c>
       <c r="F20">
-        <v>1.035099522124461</v>
+        <v>1.034034585024178</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.053573392464614</v>
+        <v>1.052746450966309</v>
       </c>
       <c r="J20">
-        <v>1.035451803001836</v>
+        <v>1.034539519058253</v>
       </c>
       <c r="K20">
-        <v>1.043506575267808</v>
+        <v>1.041994417040363</v>
       </c>
       <c r="L20">
-        <v>1.028141390054722</v>
+        <v>1.027412037907363</v>
       </c>
       <c r="M20">
-        <v>1.048552043672872</v>
+        <v>1.047504260779558</v>
       </c>
       <c r="N20">
-        <v>1.01513195020911</v>
+        <v>1.016121983118666</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.047038514779241</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16">
+        <v>1.046209312167876</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.02330923412545</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1326,46 +1503,55 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.002884896023765</v>
+        <v>1.002486590770105</v>
       </c>
       <c r="D21">
-        <v>1.026111522327287</v>
+        <v>1.025135845686556</v>
       </c>
       <c r="E21">
-        <v>1.010101520752708</v>
+        <v>1.009861385033507</v>
       </c>
       <c r="F21">
-        <v>1.031314060004831</v>
+        <v>1.030674076617584</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.051669292514095</v>
+        <v>1.051194325738305</v>
       </c>
       <c r="J21">
-        <v>1.032262494149004</v>
+        <v>1.031880715280262</v>
       </c>
       <c r="K21">
-        <v>1.040614533407623</v>
+        <v>1.039656162401125</v>
       </c>
       <c r="L21">
-        <v>1.024894011038766</v>
+        <v>1.024658308318843</v>
       </c>
       <c r="M21">
-        <v>1.045725509409176</v>
+        <v>1.045096724766571</v>
       </c>
       <c r="N21">
-        <v>1.014006829792729</v>
+        <v>1.015820705243443</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.044761051683147</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16">
+        <v>1.044263413547204</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.022788708633584</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1373,46 +1559,55 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9994864001542847</v>
+        <v>0.9994347599434472</v>
       </c>
       <c r="D22">
-        <v>1.023677910468111</v>
+        <v>1.023056406388196</v>
       </c>
       <c r="E22">
-        <v>1.00741886672744</v>
+        <v>1.007495099563879</v>
       </c>
       <c r="F22">
-        <v>1.028954724096035</v>
+        <v>1.028582952191303</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.050463860869802</v>
+        <v>1.050210078155516</v>
       </c>
       <c r="J22">
-        <v>1.030249152063427</v>
+        <v>1.030199781893471</v>
       </c>
       <c r="K22">
-        <v>1.038794457564934</v>
+        <v>1.038184542917764</v>
       </c>
       <c r="L22">
-        <v>1.022844773287868</v>
+        <v>1.022919525102826</v>
       </c>
       <c r="M22">
-        <v>1.043973607180996</v>
+        <v>1.043608673331366</v>
       </c>
       <c r="N22">
-        <v>1.013303324951041</v>
+        <v>1.015630084317478</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.043374545349173</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16">
+        <v>1.043085725763821</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.022463990403833</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1420,46 +1615,55 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.001295261943646</v>
+        <v>1.001042689315601</v>
       </c>
       <c r="D23">
-        <v>1.024972690365592</v>
+        <v>1.024149740994244</v>
       </c>
       <c r="E23">
-        <v>1.008845986032698</v>
+        <v>1.008737995070603</v>
       </c>
       <c r="F23">
-        <v>1.030209611682825</v>
+        <v>1.029684547473072</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.051106290752381</v>
+        <v>1.050725857059664</v>
       </c>
       <c r="J23">
-        <v>1.031320936868381</v>
+        <v>1.031079134543402</v>
       </c>
       <c r="K23">
-        <v>1.039763406515053</v>
+        <v>1.038955404188982</v>
       </c>
       <c r="L23">
-        <v>1.023935415505757</v>
+        <v>1.023829466927927</v>
       </c>
       <c r="M23">
-        <v>1.044905937486579</v>
+        <v>1.044390280785711</v>
       </c>
       <c r="N23">
-        <v>1.013677856209057</v>
+        <v>1.015686405186609</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.044112418974398</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16">
+        <v>1.043704313187273</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.022631980411264</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1467,46 +1671,55 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.008259479904744</v>
+        <v>1.007316265804257</v>
       </c>
       <c r="D24">
-        <v>1.029968577256338</v>
+        <v>1.028435407672844</v>
       </c>
       <c r="E24">
-        <v>1.014356119453316</v>
+        <v>1.013619531475261</v>
       </c>
       <c r="F24">
-        <v>1.035059710829468</v>
+        <v>1.033997921998118</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.053561182667709</v>
+        <v>1.052736976532188</v>
       </c>
       <c r="J24">
-        <v>1.035443253582246</v>
+        <v>1.034535561995268</v>
       </c>
       <c r="K24">
-        <v>1.043489085719894</v>
+        <v>1.041980912722019</v>
       </c>
       <c r="L24">
-        <v>1.028135730241809</v>
+        <v>1.027411621069173</v>
       </c>
       <c r="M24">
-        <v>1.048497895628589</v>
+        <v>1.047453190077697</v>
       </c>
       <c r="N24">
-        <v>1.015117761735553</v>
+        <v>1.016110020586172</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.046955193342398</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16">
+        <v>1.046128385799035</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.023299096971544</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1514,43 +1727,52 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.016038359250064</v>
+        <v>1.014549364792515</v>
       </c>
       <c r="D25">
-        <v>1.035568700630539</v>
+        <v>1.033417384073853</v>
       </c>
       <c r="E25">
-        <v>1.020540664903695</v>
+        <v>1.019315314558379</v>
       </c>
       <c r="F25">
-        <v>1.040512761950419</v>
+        <v>1.038994937589861</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.056263730614013</v>
+        <v>1.055064249638033</v>
       </c>
       <c r="J25">
-        <v>1.040037766879973</v>
+        <v>1.038596813304833</v>
       </c>
       <c r="K25">
-        <v>1.047638856255493</v>
+        <v>1.045518177072884</v>
       </c>
       <c r="L25">
-        <v>1.032828267230131</v>
+        <v>1.031621006136242</v>
       </c>
       <c r="M25">
-        <v>1.052513114573049</v>
+        <v>1.051016630407809</v>
       </c>
       <c r="N25">
-        <v>1.016721083259952</v>
+        <v>1.017173697701995</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.050132934980524</v>
+        <v>1.048948582713561</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.024095677368457</v>
       </c>
     </row>
   </sheetData>
